--- a/SCBAA/2020/Region 11.xlsx
+++ b/SCBAA/2020/Region 11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A13B7F-A34F-4C43-9B6C-EE0A8BC14505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771D0DE2-8E21-4ECF-B6FD-F907D0612225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="1140" windowWidth="13020" windowHeight="12495" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Digos" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1649,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1815,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>122787831.93000001</v>
       </c>
     </row>
@@ -1851,7 +1857,6 @@
         <v>29</v>
       </c>
       <c r="E18" s="49">
-        <f>8044777.13+2152110.46</f>
         <v>10196887.59</v>
       </c>
     </row>
@@ -1863,7 +1868,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>89892959.100000009</v>
       </c>
     </row>
@@ -2054,7 +2058,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1057807407.0900002</v>
       </c>
     </row>
@@ -2352,7 +2355,6 @@
         <v>11</v>
       </c>
       <c r="E66" s="50">
-        <f>31643136.27+14190273.39</f>
         <v>45833409.659999996</v>
       </c>
     </row>
@@ -2364,7 +2366,6 @@
         <v>12</v>
       </c>
       <c r="E67" s="50">
-        <f>21564197.4+6655320.45</f>
         <v>28219517.849999998</v>
       </c>
     </row>
@@ -2376,7 +2377,6 @@
         <v>13</v>
       </c>
       <c r="E68" s="50">
-        <f>711428+272000</f>
         <v>983428</v>
       </c>
     </row>
@@ -2614,7 +2614,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="48">
-        <f>414606466.44+25818056.89</f>
         <v>440424523.32999998</v>
       </c>
     </row>
@@ -2626,7 +2625,6 @@
         <v>51</v>
       </c>
       <c r="E92" s="51">
-        <f>38509935.5+390000</f>
         <v>38899935.5</v>
       </c>
     </row>
@@ -2636,7 +2634,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>1013516621.3800001</v>
       </c>
     </row>
@@ -2803,7 +2800,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="37">
-        <f>2600000+129818.04</f>
         <v>2729818.04</v>
       </c>
     </row>
@@ -2812,7 +2808,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>2729818.04</v>
       </c>
     </row>
@@ -2824,7 +2819,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1016246439.4200001</v>
       </c>
     </row>
@@ -2846,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E50FEDA-E51F-4ADA-8EBE-287218B179DA}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,7 +2999,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>4527813198.79</v>
       </c>
     </row>
@@ -3059,7 +3052,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>986053575.5</v>
       </c>
     </row>
@@ -3175,7 +3167,6 @@
         <v>40</v>
       </c>
       <c r="E30" s="23">
-        <f>1952681672.68+426043646.28+74715057.17+21570283.19</f>
         <v>2475010659.3200002</v>
       </c>
     </row>
@@ -3251,7 +3242,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>14045926833.120001</v>
       </c>
     </row>
@@ -3642,7 +3632,6 @@
         <v>48</v>
       </c>
       <c r="E75" s="52">
-        <f>360000+8691530.93</f>
         <v>9051530.9299999997</v>
       </c>
     </row>
@@ -3829,7 +3818,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>9846666847.6200066</v>
       </c>
     </row>
@@ -4004,7 +3992,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -4016,7 +4003,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>9846666847.6200066</v>
       </c>
     </row>
@@ -5228,8 +5214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3945C9B9-B218-4FFB-B4D4-8EC300B4DA81}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5387,7 +5373,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>269516677.93000001</v>
       </c>
     </row>
@@ -5441,7 +5426,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>118440018.22999999</v>
       </c>
     </row>
@@ -5632,7 +5616,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1407327528.6899998</v>
       </c>
     </row>
@@ -6189,7 +6172,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="45">
-        <f>2120000+28440000+589491.62+52758166.26+9807349.49</f>
         <v>93715007.36999999</v>
       </c>
     </row>
@@ -6210,7 +6192,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>1087878774.8799999</v>
       </c>
     </row>
@@ -6385,7 +6366,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>158203570.44999999</v>
       </c>
     </row>
@@ -6397,7 +6377,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1246082345.3299999</v>
       </c>
     </row>
@@ -7609,8 +7588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D533712B-5FD4-4158-B8CC-8666A2A98AB3}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7768,7 +7747,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>545349214.05999994</v>
       </c>
     </row>
@@ -7822,7 +7800,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>246378647.57000002</v>
       </c>
     </row>
@@ -8013,7 +7990,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1781122618.99</v>
       </c>
     </row>
@@ -8404,7 +8380,6 @@
         <v>48</v>
       </c>
       <c r="E75" s="45">
-        <f>12828850.27+41963548.83</f>
         <v>54792399.099999994</v>
       </c>
     </row>
@@ -8591,7 +8566,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>1782169217.5399997</v>
       </c>
     </row>
@@ -8766,7 +8740,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>97553917.820000008</v>
       </c>
     </row>
@@ -8778,7 +8751,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1879723135.3599997</v>
       </c>
     </row>
